--- a/Team-Data/2014-15/1-18-2014-15.xlsx
+++ b/Team-Data/2014-15/1-18-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -780,7 +847,7 @@
         <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ2" t="n">
         <v>9</v>
@@ -798,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW2" t="n">
         <v>5</v>
@@ -807,7 +874,7 @@
         <v>15</v>
       </c>
       <c r="AY2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ2" t="n">
         <v>1</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-18-2014-15</t>
+          <t>2015-01-18</t>
         </is>
       </c>
     </row>
@@ -935,7 +1002,7 @@
         <v>21</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH3" t="n">
         <v>6</v>
@@ -947,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL3" t="n">
         <v>14</v>
@@ -965,7 +1032,7 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
         <v>17</v>
@@ -980,7 +1047,7 @@
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW3" t="n">
         <v>10</v>
@@ -989,10 +1056,10 @@
         <v>24</v>
       </c>
       <c r="AY3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA3" t="n">
         <v>30</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-18-2014-15</t>
+          <t>2015-01-18</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1187,7 @@
         <v>19</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
         <v>25</v>
@@ -1159,13 +1226,13 @@
         <v>20</v>
       </c>
       <c r="AU4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX4" t="n">
         <v>25</v>
@@ -1177,10 +1244,10 @@
         <v>14</v>
       </c>
       <c r="BA4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC4" t="n">
         <v>22</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-18-2014-15</t>
+          <t>2015-01-18</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1375,7 @@
         <v>24</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
         <v>28</v>
@@ -1338,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="AT5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU5" t="n">
         <v>29</v>
@@ -1362,7 +1429,7 @@
         <v>7</v>
       </c>
       <c r="BB5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC5" t="n">
         <v>23</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-18-2014-15</t>
+          <t>2015-01-18</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1542,7 @@
         <v>2</v>
       </c>
       <c r="AE6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
@@ -1544,7 +1611,7 @@
         <v>2</v>
       </c>
       <c r="BB6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-18-2014-15</t>
+          <t>2015-01-18</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1742,7 @@
         <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL7" t="n">
         <v>10</v>
@@ -1690,10 +1757,10 @@
         <v>6</v>
       </c>
       <c r="AP7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR7" t="n">
         <v>14</v>
@@ -1711,13 +1778,13 @@
         <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX7" t="n">
         <v>27</v>
       </c>
       <c r="AY7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ7" t="n">
         <v>2</v>
@@ -1729,7 +1796,7 @@
         <v>16</v>
       </c>
       <c r="BC7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-18-2014-15</t>
+          <t>2015-01-18</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" t="n">
         <v>28</v>
       </c>
       <c r="F8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="H8" t="n">
         <v>48.6</v>
@@ -1776,7 +1843,7 @@
         <v>40.9</v>
       </c>
       <c r="J8" t="n">
-        <v>87</v>
+        <v>86.8</v>
       </c>
       <c r="K8" t="n">
         <v>0.471</v>
@@ -1785,34 +1852,34 @@
         <v>9.5</v>
       </c>
       <c r="M8" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O8" t="n">
         <v>17.3</v>
       </c>
       <c r="P8" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="R8" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S8" t="n">
-        <v>31.8</v>
+        <v>31.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.6</v>
+        <v>42.4</v>
       </c>
       <c r="U8" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="V8" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="W8" t="n">
         <v>8</v>
@@ -1821,22 +1888,22 @@
         <v>4.9</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z8" t="n">
         <v>20.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>108.7</v>
+        <v>108.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AD8" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1848,7 +1915,7 @@
         <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1869,19 +1936,19 @@
         <v>13</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
         <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR8" t="n">
         <v>16</v>
       </c>
       <c r="AS8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AT8" t="n">
         <v>17</v>
@@ -1896,7 +1963,7 @@
         <v>11</v>
       </c>
       <c r="AX8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY8" t="n">
         <v>3</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-18-2014-15</t>
+          <t>2015-01-18</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE9" t="n">
         <v>17</v>
@@ -2030,7 +2097,7 @@
         <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
         <v>13</v>
@@ -2039,7 +2106,7 @@
         <v>4</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL9" t="n">
         <v>13</v>
@@ -2069,10 +2136,10 @@
         <v>3</v>
       </c>
       <c r="AU9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AV9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW9" t="n">
         <v>24</v>
@@ -2090,7 +2157,7 @@
         <v>9</v>
       </c>
       <c r="BB9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC9" t="n">
         <v>17</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-18-2014-15</t>
+          <t>2015-01-18</t>
         </is>
       </c>
     </row>
@@ -2212,10 +2279,10 @@
         <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ10" t="n">
         <v>6</v>
@@ -2236,7 +2303,7 @@
         <v>25</v>
       </c>
       <c r="AP10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
@@ -2266,7 +2333,7 @@
         <v>17</v>
       </c>
       <c r="AZ10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-18-2014-15</t>
+          <t>2015-01-18</t>
         </is>
       </c>
     </row>
@@ -2415,7 +2482,7 @@
         <v>3</v>
       </c>
       <c r="AO11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP11" t="n">
         <v>22</v>
@@ -2427,7 +2494,7 @@
         <v>24</v>
       </c>
       <c r="AS11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
         <v>8</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-18-2014-15</t>
+          <t>2015-01-18</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" t="n">
         <v>13</v>
       </c>
       <c r="G12" t="n">
-        <v>0.675</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>48.5</v>
       </c>
       <c r="I12" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J12" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="K12" t="n">
         <v>0.438</v>
@@ -2513,19 +2580,19 @@
         <v>11.8</v>
       </c>
       <c r="M12" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.35</v>
+        <v>0.352</v>
       </c>
       <c r="O12" t="n">
-        <v>17.3</v>
+        <v>17.7</v>
       </c>
       <c r="P12" t="n">
-        <v>24.2</v>
+        <v>24.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.714</v>
+        <v>0.712</v>
       </c>
       <c r="R12" t="n">
         <v>12.2</v>
@@ -2534,52 +2601,52 @@
         <v>31.2</v>
       </c>
       <c r="T12" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U12" t="n">
         <v>21</v>
       </c>
       <c r="V12" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="W12" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="X12" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="AD12" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ12" t="n">
         <v>16</v>
@@ -2594,25 +2661,25 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AP12" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS12" t="n">
         <v>22</v>
       </c>
       <c r="AT12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU12" t="n">
         <v>19</v>
@@ -2627,19 +2694,19 @@
         <v>18</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-18-2014-15</t>
+          <t>2015-01-18</t>
         </is>
       </c>
     </row>
@@ -2752,7 +2819,7 @@
         <v>23</v>
       </c>
       <c r="AF13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
         <v>23</v>
@@ -2764,16 +2831,16 @@
         <v>26</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN13" t="n">
         <v>24</v>
@@ -2791,7 +2858,7 @@
         <v>13</v>
       </c>
       <c r="AS13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT13" t="n">
         <v>4</v>
@@ -2800,7 +2867,7 @@
         <v>20</v>
       </c>
       <c r="AV13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW13" t="n">
         <v>29</v>
@@ -2818,7 +2885,7 @@
         <v>12</v>
       </c>
       <c r="BB13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC13" t="n">
         <v>19</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-18-2014-15</t>
+          <t>2015-01-18</t>
         </is>
       </c>
     </row>
@@ -2931,13 +2998,13 @@
         <v>5</v>
       </c>
       <c r="AE14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH14" t="n">
         <v>26</v>
@@ -2973,7 +3040,7 @@
         <v>27</v>
       </c>
       <c r="AS14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT14" t="n">
         <v>26</v>
@@ -3000,7 +3067,7 @@
         <v>4</v>
       </c>
       <c r="BB14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-18-2014-15</t>
+          <t>2015-01-18</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" t="n">
         <v>12</v>
       </c>
       <c r="F15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3</v>
+        <v>0.293</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>37.7</v>
+        <v>37.5</v>
       </c>
       <c r="J15" t="n">
-        <v>85.90000000000001</v>
+        <v>85.7</v>
       </c>
       <c r="K15" t="n">
-        <v>0.439</v>
+        <v>0.437</v>
       </c>
       <c r="L15" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M15" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="N15" t="n">
         <v>0.351</v>
       </c>
       <c r="O15" t="n">
-        <v>18.2</v>
+        <v>18.5</v>
       </c>
       <c r="P15" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.744</v>
+        <v>0.746</v>
       </c>
       <c r="R15" t="n">
         <v>11.5</v>
       </c>
       <c r="S15" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="T15" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U15" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V15" t="n">
         <v>12.7</v>
@@ -3092,70 +3159,70 @@
         <v>7.3</v>
       </c>
       <c r="X15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.7</v>
+        <v>100.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.8</v>
+        <v>-6.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG15" t="n">
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ15" t="n">
         <v>7</v>
       </c>
       <c r="AK15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AM15" t="n">
         <v>22</v>
       </c>
       <c r="AN15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ15" t="n">
         <v>20</v>
       </c>
       <c r="AR15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT15" t="n">
         <v>14</v>
@@ -3167,7 +3234,7 @@
         <v>5</v>
       </c>
       <c r="AW15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX15" t="n">
         <v>18</v>
@@ -3176,10 +3243,10 @@
         <v>9</v>
       </c>
       <c r="AZ15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA15" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BB15" t="n">
         <v>17</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-18-2014-15</t>
+          <t>2015-01-18</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>4.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3310,7 +3377,7 @@
         <v>6</v>
       </c>
       <c r="AJ16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
         <v>6</v>
@@ -3325,7 +3392,7 @@
         <v>12</v>
       </c>
       <c r="AO16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP16" t="n">
         <v>13</v>
@@ -3355,19 +3422,19 @@
         <v>22</v>
       </c>
       <c r="AY16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA16" t="n">
         <v>13</v>
       </c>
       <c r="BB16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-18-2014-15</t>
+          <t>2015-01-18</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3501,7 +3568,7 @@
         <v>17</v>
       </c>
       <c r="AM17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN17" t="n">
         <v>18</v>
@@ -3510,7 +3577,7 @@
         <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ17" t="n">
         <v>26</v>
@@ -3525,10 +3592,10 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AV17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW17" t="n">
         <v>8</v>
@@ -3543,7 +3610,7 @@
         <v>12</v>
       </c>
       <c r="BA17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-18-2014-15</t>
+          <t>2015-01-18</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>1.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE18" t="n">
         <v>13</v>
@@ -3671,13 +3738,13 @@
         <v>7</v>
       </c>
       <c r="AI18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
         <v>24</v>
       </c>
       <c r="AK18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL18" t="n">
         <v>21</v>
@@ -3701,7 +3768,7 @@
         <v>22</v>
       </c>
       <c r="AS18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT18" t="n">
         <v>23</v>
@@ -3719,19 +3786,19 @@
         <v>20</v>
       </c>
       <c r="AY18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ18" t="n">
         <v>27</v>
       </c>
       <c r="BA18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB18" t="n">
         <v>21</v>
       </c>
       <c r="BC18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-18-2014-15</t>
+          <t>2015-01-18</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-9.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3853,13 +3920,13 @@
         <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ19" t="n">
         <v>9</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
@@ -3874,7 +3941,7 @@
         <v>7</v>
       </c>
       <c r="AP19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ19" t="n">
         <v>22</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-18-2014-15</t>
+          <t>2015-01-18</t>
         </is>
       </c>
     </row>
@@ -3957,13 +4024,13 @@
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J20" t="n">
-        <v>83.7</v>
+        <v>84.2</v>
       </c>
       <c r="K20" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L20" t="n">
         <v>6.6</v>
@@ -3972,64 +4039,64 @@
         <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.344</v>
+        <v>0.342</v>
       </c>
       <c r="O20" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P20" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.764</v>
+        <v>0.758</v>
       </c>
       <c r="R20" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="S20" t="n">
-        <v>31.9</v>
+        <v>32.1</v>
       </c>
       <c r="T20" t="n">
-        <v>43.4</v>
+        <v>43.9</v>
       </c>
       <c r="U20" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V20" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="W20" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X20" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
         <v>14</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
         <v>21</v>
@@ -4038,37 +4105,37 @@
         <v>11</v>
       </c>
       <c r="AJ20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>25</v>
       </c>
       <c r="AM20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN20" t="n">
         <v>21</v>
       </c>
       <c r="AO20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AQ20" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AR20" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AS20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT20" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AU20" t="n">
         <v>15</v>
@@ -4077,16 +4144,16 @@
         <v>7</v>
       </c>
       <c r="AW20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY20" t="n">
         <v>29</v>
       </c>
       <c r="AZ20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4095,7 +4162,7 @@
         <v>15</v>
       </c>
       <c r="BC20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-18-2014-15</t>
+          <t>2015-01-18</t>
         </is>
       </c>
     </row>
@@ -4214,7 +4281,7 @@
         <v>30</v>
       </c>
       <c r="AH21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
         <v>27</v>
@@ -4229,7 +4296,7 @@
         <v>16</v>
       </c>
       <c r="AM21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN21" t="n">
         <v>14</v>
@@ -4259,7 +4326,7 @@
         <v>23</v>
       </c>
       <c r="AW21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-18-2014-15</t>
+          <t>2015-01-18</t>
         </is>
       </c>
     </row>
@@ -4306,85 +4373,85 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22" t="n">
         <v>20</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>0.487</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>37.5</v>
+        <v>37.2</v>
       </c>
       <c r="J22" t="n">
         <v>84.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.444</v>
+        <v>0.441</v>
       </c>
       <c r="L22" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M22" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.327</v>
+        <v>0.326</v>
       </c>
       <c r="O22" t="n">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="P22" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.743</v>
+        <v>0.744</v>
       </c>
       <c r="R22" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S22" t="n">
-        <v>34.6</v>
+        <v>34.3</v>
       </c>
       <c r="T22" t="n">
-        <v>46.8</v>
+        <v>46.6</v>
       </c>
       <c r="U22" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="V22" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="W22" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="X22" t="n">
         <v>5.9</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>100.2</v>
+        <v>99.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
@@ -4420,7 +4487,7 @@
         <v>11</v>
       </c>
       <c r="AP22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ22" t="n">
         <v>21</v>
@@ -4429,37 +4496,37 @@
         <v>4</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT22" t="n">
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AV22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AX22" t="n">
         <v>4</v>
       </c>
       <c r="AY22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA22" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB22" t="n">
         <v>18</v>
       </c>
       <c r="BC22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-18-2014-15</t>
+          <t>2015-01-18</t>
         </is>
       </c>
     </row>
@@ -4503,40 +4570,40 @@
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J23" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="N23" t="n">
         <v>0.368</v>
       </c>
       <c r="O23" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="P23" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.731</v>
+        <v>0.73</v>
       </c>
       <c r="R23" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6</v>
+        <v>32</v>
       </c>
       <c r="T23" t="n">
-        <v>40.2</v>
+        <v>40.7</v>
       </c>
       <c r="U23" t="n">
         <v>20.2</v>
@@ -4545,25 +4612,25 @@
         <v>14.7</v>
       </c>
       <c r="W23" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X23" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="Z23" t="n">
         <v>21.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.2</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.5</v>
+        <v>-5.3</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4575,7 +4642,7 @@
         <v>26</v>
       </c>
       <c r="AG23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
         <v>28</v>
@@ -4593,7 +4660,7 @@
         <v>18</v>
       </c>
       <c r="AM23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN23" t="n">
         <v>7</v>
@@ -4602,7 +4669,7 @@
         <v>29</v>
       </c>
       <c r="AP23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ23" t="n">
         <v>27</v>
@@ -4611,13 +4678,13 @@
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
       </c>
       <c r="AU23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV23" t="n">
         <v>20</v>
@@ -4629,16 +4696,16 @@
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-18-2014-15</t>
+          <t>2015-01-18</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-12.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4784,13 +4851,13 @@
         <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS24" t="n">
         <v>26</v>
@@ -4811,13 +4878,13 @@
         <v>5</v>
       </c>
       <c r="AY24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ24" t="n">
         <v>23</v>
       </c>
       <c r="BA24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-18-2014-15</t>
+          <t>2015-01-18</t>
         </is>
       </c>
     </row>
@@ -4963,7 +5030,7 @@
         <v>10</v>
       </c>
       <c r="AO25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP25" t="n">
         <v>23</v>
@@ -4978,19 +5045,19 @@
         <v>19</v>
       </c>
       <c r="AT25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU25" t="n">
         <v>20</v>
       </c>
       <c r="AV25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW25" t="n">
         <v>7</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
         <v>6</v>
@@ -5002,7 +5069,7 @@
         <v>11</v>
       </c>
       <c r="BB25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC25" t="n">
         <v>11</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-18-2014-15</t>
+          <t>2015-01-18</t>
         </is>
       </c>
     </row>
@@ -5124,7 +5191,7 @@
         <v>3</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
         <v>7</v>
@@ -5142,13 +5209,13 @@
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
         <v>27</v>
       </c>
       <c r="AP26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ26" t="n">
         <v>2</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-18-2014-15</t>
+          <t>2015-01-18</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-2</v>
       </c>
       <c r="AD27" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE27" t="n">
         <v>20</v>
@@ -5315,7 +5382,7 @@
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL27" t="n">
         <v>29</v>
@@ -5336,7 +5403,7 @@
         <v>5</v>
       </c>
       <c r="AR27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS27" t="n">
         <v>6</v>
@@ -5366,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC27" t="n">
         <v>21</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-18-2014-15</t>
+          <t>2015-01-18</t>
         </is>
       </c>
     </row>
@@ -5413,28 +5480,28 @@
         <v>49.1</v>
       </c>
       <c r="I28" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="J28" t="n">
-        <v>83.40000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.46</v>
+        <v>0.463</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="O28" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="P28" t="n">
         <v>22</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0.371</v>
-      </c>
-      <c r="O28" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="P28" t="n">
-        <v>22.2</v>
       </c>
       <c r="Q28" t="n">
         <v>0.761</v>
@@ -5443,37 +5510,37 @@
         <v>9.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>34.1</v>
+        <v>33.9</v>
       </c>
       <c r="T28" t="n">
-        <v>43.9</v>
+        <v>43.6</v>
       </c>
       <c r="U28" t="n">
         <v>24.6</v>
       </c>
       <c r="V28" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="W28" t="n">
         <v>7.5</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>101.8</v>
+        <v>102.1</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="AD28" t="n">
         <v>5</v>
@@ -5497,19 +5564,19 @@
         <v>17</v>
       </c>
       <c r="AK28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL28" t="n">
         <v>10</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>11</v>
       </c>
       <c r="AM28" t="n">
         <v>15</v>
       </c>
       <c r="AN28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
         <v>20</v>
@@ -5524,34 +5591,34 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AW28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX28" t="n">
         <v>7</v>
       </c>
       <c r="AY28" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA28" t="n">
         <v>22</v>
       </c>
       <c r="BB28" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BC28" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-18-2014-15</t>
+          <t>2015-01-18</t>
         </is>
       </c>
     </row>
@@ -5580,94 +5647,94 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E29" t="n">
         <v>26</v>
       </c>
       <c r="F29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G29" t="n">
-        <v>0.65</v>
+        <v>0.667</v>
       </c>
       <c r="H29" t="n">
         <v>48.5</v>
       </c>
       <c r="I29" t="n">
-        <v>39.1</v>
+        <v>39.3</v>
       </c>
       <c r="J29" t="n">
-        <v>84.90000000000001</v>
+        <v>85.2</v>
       </c>
       <c r="K29" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L29" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="M29" t="n">
         <v>25.4</v>
       </c>
       <c r="N29" t="n">
-        <v>0.356</v>
+        <v>0.358</v>
       </c>
       <c r="O29" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="P29" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.781</v>
+        <v>0.779</v>
       </c>
       <c r="R29" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S29" t="n">
         <v>30.5</v>
       </c>
       <c r="T29" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U29" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V29" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="W29" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X29" t="n">
         <v>4.4</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z29" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA29" t="n">
         <v>21.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>106.8</v>
+        <v>107.1</v>
       </c>
       <c r="AC29" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AE29" t="n">
         <v>10</v>
       </c>
       <c r="AF29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG29" t="n">
         <v>8</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>9</v>
       </c>
       <c r="AH29" t="n">
         <v>11</v>
@@ -5676,10 +5743,10 @@
         <v>5</v>
       </c>
       <c r="AJ29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL29" t="n">
         <v>8</v>
@@ -5694,13 +5761,13 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ29" t="n">
         <v>3</v>
       </c>
       <c r="AR29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS29" t="n">
         <v>25</v>
@@ -5709,13 +5776,13 @@
         <v>22</v>
       </c>
       <c r="AU29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AV29" t="n">
         <v>4</v>
       </c>
       <c r="AW29" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AX29" t="n">
         <v>21</v>
@@ -5724,13 +5791,13 @@
         <v>19</v>
       </c>
       <c r="AZ29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA29" t="n">
         <v>5</v>
       </c>
       <c r="BB29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC29" t="n">
         <v>6</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-18-2014-15</t>
+          <t>2015-01-18</t>
         </is>
       </c>
     </row>
@@ -5762,85 +5829,85 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" t="n">
         <v>14</v>
       </c>
       <c r="F30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G30" t="n">
-        <v>0.341</v>
+        <v>0.35</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>35.6</v>
+        <v>35.8</v>
       </c>
       <c r="J30" t="n">
-        <v>79</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.451</v>
+        <v>0.454</v>
       </c>
       <c r="L30" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M30" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="N30" t="n">
         <v>0.335</v>
       </c>
       <c r="O30" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="P30" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.75</v>
+        <v>0.752</v>
       </c>
       <c r="R30" t="n">
         <v>11.5</v>
       </c>
       <c r="S30" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T30" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U30" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V30" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W30" t="n">
         <v>6.7</v>
       </c>
       <c r="X30" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z30" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA30" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>95.5</v>
+        <v>96.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>-3.4</v>
+        <v>-3</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="AE30" t="n">
         <v>25</v>
@@ -5849,7 +5916,7 @@
         <v>24</v>
       </c>
       <c r="AG30" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AH30" t="n">
         <v>29</v>
@@ -5861,19 +5928,19 @@
         <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL30" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AM30" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AN30" t="n">
         <v>23</v>
       </c>
       <c r="AO30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP30" t="n">
         <v>15</v>
@@ -5882,16 +5949,16 @@
         <v>17</v>
       </c>
       <c r="AR30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV30" t="n">
         <v>24</v>
@@ -5900,10 +5967,10 @@
         <v>25</v>
       </c>
       <c r="AX30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ30" t="n">
         <v>5</v>
@@ -5912,7 +5979,7 @@
         <v>24</v>
       </c>
       <c r="BB30" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BC30" t="n">
         <v>24</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-18-2014-15</t>
+          <t>2015-01-18</t>
         </is>
       </c>
     </row>
@@ -6028,13 +6095,13 @@
         <v>5</v>
       </c>
       <c r="AF31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI31" t="n">
         <v>9</v>
@@ -6070,7 +6137,7 @@
         <v>12</v>
       </c>
       <c r="AT31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU31" t="n">
         <v>4</v>
@@ -6091,7 +6158,7 @@
         <v>18</v>
       </c>
       <c r="BA31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB31" t="n">
         <v>19</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-18-2014-15</t>
+          <t>2015-01-18</t>
         </is>
       </c>
     </row>
